--- a/src/main/resources/templates/staff_attendance_template.xlsx
+++ b/src/main/resources/templates/staff_attendance_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kienl\Development\NeXT\nexts-gs-mars-field-service\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4E52DF-39DF-4F00-87C3-F47E384E8DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C17EA7-8F0D-4141-AD41-488CA7C3690C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35880" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>Hình checkout</t>
   </si>
   <si>
-    <t>Code nhân viên</t>
-  </si>
-  <si>
     <t>Họ tên nhân viên</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>profileImage</t>
+  </si>
+  <si>
+    <t>Mã nhân viên</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -570,72 +570,72 @@
         <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/templates/staff_attendance_template.xlsx
+++ b/src/main/resources/templates/staff_attendance_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kienl\Development\NeXT\nexts-gs-mars-field-service\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C17EA7-8F0D-4141-AD41-488CA7C3690C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDA3633-15D2-4264-9725-61FD80F28C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35880" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +162,22 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -218,10 +234,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -232,8 +249,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -515,14 +537,14 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="3" width="11.26953125" customWidth="1"/>
-    <col min="7" max="7" width="23.6328125" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" customWidth="1"/>
+    <col min="7" max="7" width="32.1796875" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" customWidth="1"/>
     <col min="9" max="9" width="12.453125" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="12" width="15.36328125" customWidth="1"/>
@@ -585,17 +607,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -610,10 +632,10 @@
       <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="3" t="s">
